--- a/pred_ohlcv/54/2019-11-01 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 ETZ ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="C2" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="D2" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="E2" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="F2" t="n">
-        <v>5607.4613</v>
+        <v>38224.4354</v>
       </c>
       <c r="G2" t="n">
-        <v>31.93333333333334</v>
+        <v>31.92333333333334</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="C3" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="D3" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="E3" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="F3" t="n">
-        <v>48</v>
+        <v>5607.4613</v>
       </c>
       <c r="G3" t="n">
-        <v>31.93166666666667</v>
+        <v>31.93333333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="C4" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="D4" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="E4" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
         <v>31.93166666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>32.2</v>
       </c>
       <c r="F5" t="n">
-        <v>4990</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>31.92666666666667</v>
+        <v>31.93166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>32.2</v>
       </c>
       <c r="C6" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="D6" t="n">
         <v>32.2</v>
       </c>
       <c r="E6" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="F6" t="n">
-        <v>5010.9059</v>
+        <v>4990</v>
       </c>
       <c r="G6" t="n">
-        <v>31.91833333333334</v>
+        <v>31.92666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="C7" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="D7" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="E7" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="F7" t="n">
-        <v>72926.5371</v>
+        <v>5010.9059</v>
       </c>
       <c r="G7" t="n">
-        <v>31.895</v>
+        <v>31.91833333333334</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31.4</v>
+        <v>31.9</v>
       </c>
       <c r="C8" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="D8" t="n">
-        <v>31.4</v>
+        <v>31.9</v>
       </c>
       <c r="E8" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="F8" t="n">
-        <v>4059.7842</v>
+        <v>72926.5371</v>
       </c>
       <c r="G8" t="n">
-        <v>31.87333333333333</v>
+        <v>31.895</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="C9" t="n">
         <v>31.3</v>
       </c>
       <c r="D9" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="E9" t="n">
         <v>31.3</v>
       </c>
       <c r="F9" t="n">
-        <v>18541.2052</v>
+        <v>4059.7842</v>
       </c>
       <c r="G9" t="n">
-        <v>31.85333333333334</v>
+        <v>31.87333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="C10" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="D10" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="E10" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="F10" t="n">
-        <v>7678.0847</v>
+        <v>18541.2052</v>
       </c>
       <c r="G10" t="n">
-        <v>31.84166666666667</v>
+        <v>31.85333333333334</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="C11" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="E11" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="F11" t="n">
-        <v>18495.0292</v>
+        <v>7678.0847</v>
       </c>
       <c r="G11" t="n">
-        <v>31.83</v>
+        <v>31.84166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C12" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="D12" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="E12" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="F12" t="n">
-        <v>400</v>
+        <v>18495.0292</v>
       </c>
       <c r="G12" t="n">
-        <v>31.825</v>
+        <v>31.83</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C13" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E13" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G13" t="n">
-        <v>31.83</v>
+        <v>31.825</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>31.9</v>
       </c>
       <c r="F14" t="n">
-        <v>34651.8408</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>31.835</v>
+        <v>31.83</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E15" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>34651.8408</v>
       </c>
       <c r="G15" t="n">
-        <v>31.84166666666668</v>
+        <v>31.835</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
         <v>31.8</v>
       </c>
       <c r="F16" t="n">
-        <v>3980.8654</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>31.84333333333334</v>
+        <v>31.84166666666668</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>31.8</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E17" t="n">
         <v>31.8</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>3980.8654</v>
       </c>
       <c r="G17" t="n">
-        <v>31.85000000000001</v>
+        <v>31.84333333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>31.8</v>
       </c>
       <c r="C18" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
         <v>31.8</v>
       </c>
       <c r="F18" t="n">
-        <v>16313.4306</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>31.84833333333334</v>
+        <v>31.85000000000001</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>16313.4306</v>
       </c>
       <c r="G19" t="n">
         <v>31.84833333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>31.85</v>
+        <v>31.84833333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>16348.627</v>
+        <v>391</v>
       </c>
       <c r="G21" t="n">
-        <v>31.85666666666667</v>
+        <v>31.85</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="C22" t="n">
-        <v>32.4</v>
+        <v>32.1</v>
       </c>
       <c r="D22" t="n">
-        <v>32.4</v>
+        <v>32.1</v>
       </c>
       <c r="E22" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="F22" t="n">
-        <v>38080.1302</v>
+        <v>16348.627</v>
       </c>
       <c r="G22" t="n">
-        <v>31.865</v>
+        <v>31.85666666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="C23" t="n">
         <v>32.4</v>
@@ -963,15 +1031,18 @@
         <v>32.4</v>
       </c>
       <c r="E23" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1736.1111</v>
+        <v>38080.1302</v>
       </c>
       <c r="G23" t="n">
-        <v>31.87166666666667</v>
+        <v>31.865</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="C24" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="D24" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="E24" t="n">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="F24" t="n">
-        <v>122612.8706</v>
+        <v>1736.1111</v>
       </c>
       <c r="G24" t="n">
-        <v>31.865</v>
+        <v>31.87166666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="C25" t="n">
         <v>31.8</v>
       </c>
       <c r="D25" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="E25" t="n">
         <v>31.8</v>
       </c>
       <c r="F25" t="n">
-        <v>2500</v>
+        <v>122612.8706</v>
       </c>
       <c r="G25" t="n">
-        <v>31.85666666666667</v>
+        <v>31.865</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="C26" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D26" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="E26" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F26" t="n">
-        <v>46622.759</v>
+        <v>2500</v>
       </c>
       <c r="G26" t="n">
-        <v>31.84666666666667</v>
+        <v>31.85666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>46622.759</v>
       </c>
       <c r="G27" t="n">
         <v>31.84666666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>32</v>
       </c>
       <c r="F28" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
         <v>31.84666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="E29" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
-        <v>33130.9937</v>
+        <v>44</v>
       </c>
       <c r="G29" t="n">
-        <v>31.83666666666667</v>
+        <v>31.84666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="C30" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D30" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E30" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>33130.9937</v>
       </c>
       <c r="G30" t="n">
-        <v>31.83166666666667</v>
+        <v>31.83666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="F31" t="n">
-        <v>392.2602</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
         <v>31.83166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>32</v>
+        <v>31.6</v>
       </c>
       <c r="C32" t="n">
         <v>32</v>
@@ -1197,15 +1292,18 @@
         <v>32</v>
       </c>
       <c r="E32" t="n">
-        <v>32</v>
+        <v>31.6</v>
       </c>
       <c r="F32" t="n">
-        <v>324</v>
+        <v>392.2602</v>
       </c>
       <c r="G32" t="n">
-        <v>31.82833333333334</v>
+        <v>31.83166666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>10.3767</v>
+        <v>324</v>
       </c>
       <c r="G33" t="n">
-        <v>31.83666666666667</v>
+        <v>31.82833333333334</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>32.2</v>
       </c>
       <c r="F34" t="n">
-        <v>143</v>
+        <v>10.3767</v>
       </c>
       <c r="G34" t="n">
-        <v>31.84500000000001</v>
+        <v>31.83666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>32.2</v>
       </c>
       <c r="F35" t="n">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="G35" t="n">
-        <v>31.86166666666667</v>
+        <v>31.84500000000001</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="D36" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G36" t="n">
-        <v>31.875</v>
+        <v>31.86166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="C37" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="E37" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>21.7391</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>31.88</v>
+        <v>31.875</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>32.2</v>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="D38" t="n">
         <v>32.2</v>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="F38" t="n">
-        <v>23919.6889</v>
+        <v>21.7391</v>
       </c>
       <c r="G38" t="n">
-        <v>31.895</v>
+        <v>31.88</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,10 +1486,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="C39" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
         <v>32.2</v>
@@ -1382,12 +1498,15 @@
         <v>32</v>
       </c>
       <c r="F39" t="n">
-        <v>98.78</v>
+        <v>23919.6889</v>
       </c>
       <c r="G39" t="n">
-        <v>31.89833333333334</v>
+        <v>31.895</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>32</v>
       </c>
       <c r="C40" t="n">
-        <v>31.4</v>
+        <v>32.2</v>
       </c>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="E40" t="n">
-        <v>31.4</v>
+        <v>32</v>
       </c>
       <c r="F40" t="n">
-        <v>38080.1302</v>
+        <v>98.78</v>
       </c>
       <c r="G40" t="n">
-        <v>31.90166666666667</v>
+        <v>31.89833333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="C41" t="n">
-        <v>32.1</v>
+        <v>31.4</v>
       </c>
       <c r="D41" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
-        <v>32.1</v>
+        <v>31.4</v>
       </c>
       <c r="F41" t="n">
-        <v>29</v>
+        <v>38080.1302</v>
       </c>
       <c r="G41" t="n">
-        <v>31.91166666666667</v>
+        <v>31.90166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>32.1</v>
       </c>
       <c r="C42" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="D42" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="E42" t="n">
         <v>32.1</v>
       </c>
       <c r="F42" t="n">
-        <v>30691.0869</v>
+        <v>29</v>
       </c>
       <c r="G42" t="n">
-        <v>31.92166666666667</v>
+        <v>31.91166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="E43" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>30691.0869</v>
       </c>
       <c r="G43" t="n">
-        <v>31.93166666666667</v>
+        <v>31.92166666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="C44" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="E44" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="F44" t="n">
-        <v>2802.9483</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>31.92833333333334</v>
+        <v>31.93166666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C45" t="n">
         <v>31.5</v>
       </c>
       <c r="D45" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="E45" t="n">
         <v>31.5</v>
       </c>
       <c r="F45" t="n">
-        <v>19331.3836</v>
+        <v>2802.9483</v>
       </c>
       <c r="G45" t="n">
-        <v>31.93166666666667</v>
+        <v>31.92833333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="C46" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="D46" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E46" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="F46" t="n">
-        <v>60</v>
+        <v>19331.3836</v>
       </c>
       <c r="G46" t="n">
-        <v>31.93500000000001</v>
+        <v>31.93166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C47" t="n">
         <v>31.8</v>
       </c>
-      <c r="C47" t="n">
-        <v>31.9</v>
-      </c>
       <c r="D47" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="E47" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="F47" t="n">
-        <v>34452.6216</v>
+        <v>60</v>
       </c>
       <c r="G47" t="n">
-        <v>31.94000000000001</v>
+        <v>31.93500000000001</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>34452.6216</v>
       </c>
       <c r="G48" t="n">
-        <v>31.94500000000001</v>
+        <v>31.94000000000001</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>32</v>
       </c>
       <c r="F49" t="n">
-        <v>54253.8515</v>
+        <v>20</v>
       </c>
       <c r="G49" t="n">
-        <v>31.95166666666668</v>
+        <v>31.94500000000001</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>32</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>54253.8515</v>
       </c>
       <c r="G50" t="n">
-        <v>31.95666666666667</v>
+        <v>31.95166666666668</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>32</v>
       </c>
       <c r="F51" t="n">
-        <v>7.2562</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>31.95333333333334</v>
+        <v>31.95666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="C52" t="n">
         <v>32</v>
       </c>
       <c r="D52" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="E52" t="n">
         <v>32</v>
       </c>
       <c r="F52" t="n">
-        <v>13.7438</v>
+        <v>7.2562</v>
       </c>
       <c r="G52" t="n">
-        <v>31.95166666666668</v>
+        <v>31.95333333333334</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="C53" t="n">
         <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="E53" t="n">
         <v>32</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>13.7438</v>
       </c>
       <c r="G53" t="n">
-        <v>31.96000000000001</v>
+        <v>31.95166666666668</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="C54" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="E54" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="F54" t="n">
-        <v>3011.0809</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>31.95000000000001</v>
+        <v>31.96000000000001</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C55" t="n">
         <v>31.5</v>
       </c>
-      <c r="C55" t="n">
-        <v>31.4</v>
-      </c>
       <c r="D55" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E55" t="n">
         <v>31.5</v>
       </c>
-      <c r="E55" t="n">
-        <v>31.4</v>
-      </c>
       <c r="F55" t="n">
-        <v>143351.529</v>
+        <v>3011.0809</v>
       </c>
       <c r="G55" t="n">
-        <v>31.93833333333335</v>
+        <v>31.95000000000001</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="C56" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="D56" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="E56" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="F56" t="n">
-        <v>17</v>
+        <v>143351.529</v>
       </c>
       <c r="G56" t="n">
-        <v>31.93166666666668</v>
+        <v>31.93833333333335</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C57" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D57" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="E57" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F57" t="n">
-        <v>527.4736</v>
+        <v>17</v>
       </c>
       <c r="G57" t="n">
-        <v>31.92833333333335</v>
+        <v>31.93166666666668</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>31.8</v>
       </c>
       <c r="F58" t="n">
-        <v>144520.4702</v>
+        <v>527.4736</v>
       </c>
       <c r="G58" t="n">
-        <v>31.92166666666669</v>
+        <v>31.92833333333335</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="C59" t="n">
-        <v>31.2</v>
+        <v>31.9</v>
       </c>
       <c r="D59" t="n">
-        <v>31.5</v>
+        <v>31.9</v>
       </c>
       <c r="E59" t="n">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="F59" t="n">
-        <v>67283.6992</v>
+        <v>144520.4702</v>
       </c>
       <c r="G59" t="n">
-        <v>31.90500000000002</v>
+        <v>31.92166666666669</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="C60" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
       <c r="D60" t="n">
-        <v>31.8</v>
+        <v>31.5</v>
       </c>
       <c r="E60" t="n">
-        <v>31.8</v>
+        <v>31.2</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>67283.6992</v>
       </c>
       <c r="G60" t="n">
-        <v>31.90000000000002</v>
+        <v>31.90500000000002</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>31.8</v>
       </c>
       <c r="F61" t="n">
-        <v>118401.007</v>
+        <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>31.89333333333336</v>
+        <v>31.90000000000002</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>31.8</v>
       </c>
       <c r="F62" t="n">
-        <v>75089.0243</v>
+        <v>118401.007</v>
       </c>
       <c r="G62" t="n">
-        <v>31.88500000000002</v>
+        <v>31.89333333333336</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C63" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="D63" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="E63" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="F63" t="n">
-        <v>17</v>
+        <v>75089.0243</v>
       </c>
       <c r="G63" t="n">
-        <v>31.87833333333336</v>
+        <v>31.88500000000002</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>31.7</v>
       </c>
       <c r="F64" t="n">
-        <v>12762.8864</v>
+        <v>17</v>
       </c>
       <c r="G64" t="n">
-        <v>31.87000000000002</v>
+        <v>31.87833333333336</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C65" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D65" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="E65" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="F65" t="n">
-        <v>18</v>
+        <v>12762.8864</v>
       </c>
       <c r="G65" t="n">
-        <v>31.86333333333335</v>
+        <v>31.87000000000002</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="C66" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="D66" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="E66" t="n">
-        <v>31.3</v>
+        <v>31.8</v>
       </c>
       <c r="F66" t="n">
-        <v>15704.1786</v>
+        <v>18</v>
       </c>
       <c r="G66" t="n">
-        <v>31.85000000000002</v>
+        <v>31.86333333333335</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="C67" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="D67" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="E67" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="F67" t="n">
-        <v>17</v>
+        <v>15704.1786</v>
       </c>
       <c r="G67" t="n">
-        <v>31.85333333333336</v>
+        <v>31.85000000000002</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="C68" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="D68" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="E68" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="F68" t="n">
-        <v>61139.6516</v>
+        <v>17</v>
       </c>
       <c r="G68" t="n">
         <v>31.85333333333336</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="C69" t="n">
         <v>31.3</v>
       </c>
       <c r="D69" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="E69" t="n">
         <v>31.3</v>
       </c>
       <c r="F69" t="n">
-        <v>427.1091</v>
+        <v>61139.6516</v>
       </c>
       <c r="G69" t="n">
         <v>31.85333333333336</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>32</v>
+        <v>31.3</v>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>31.3</v>
       </c>
       <c r="D70" t="n">
-        <v>32</v>
+        <v>31.3</v>
       </c>
       <c r="E70" t="n">
-        <v>32</v>
+        <v>31.3</v>
       </c>
       <c r="F70" t="n">
-        <v>22</v>
+        <v>427.1091</v>
       </c>
       <c r="G70" t="n">
-        <v>31.86166666666669</v>
+        <v>31.85333333333336</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="C71" t="n">
         <v>32</v>
@@ -2211,15 +2423,18 @@
         <v>32</v>
       </c>
       <c r="E71" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="F71" t="n">
-        <v>59647.3125</v>
+        <v>22</v>
       </c>
       <c r="G71" t="n">
-        <v>31.86833333333336</v>
+        <v>31.86166666666669</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C72" t="n">
         <v>32</v>
@@ -2237,15 +2452,18 @@
         <v>32</v>
       </c>
       <c r="E72" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F72" t="n">
-        <v>60</v>
+        <v>59647.3125</v>
       </c>
       <c r="G72" t="n">
-        <v>31.87333333333336</v>
+        <v>31.86833333333336</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="C73" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="D73" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="E73" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="G73" t="n">
         <v>31.87333333333336</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="C74" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="D74" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E74" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" t="n">
-        <v>31.87500000000002</v>
+        <v>31.87333333333336</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="C75" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="E75" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="F75" t="n">
-        <v>16564.0752</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
-        <v>31.87333333333336</v>
+        <v>31.87500000000002</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="C76" t="n">
         <v>31.9</v>
@@ -2341,15 +2568,18 @@
         <v>31.9</v>
       </c>
       <c r="E76" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="F76" t="n">
-        <v>33223.7392</v>
+        <v>16564.0752</v>
       </c>
       <c r="G76" t="n">
-        <v>31.87500000000002</v>
+        <v>31.87333333333336</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="C77" t="n">
         <v>31.9</v>
       </c>
-      <c r="C77" t="n">
-        <v>32</v>
-      </c>
       <c r="D77" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="E77" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="F77" t="n">
-        <v>33240.625</v>
+        <v>33223.7392</v>
       </c>
       <c r="G77" t="n">
         <v>31.87500000000002</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="C78" t="n">
+        <v>32</v>
+      </c>
+      <c r="D78" t="n">
+        <v>32</v>
+      </c>
+      <c r="E78" t="n">
         <v>31.9</v>
       </c>
-      <c r="D78" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>31.5</v>
-      </c>
       <c r="F78" t="n">
-        <v>56019</v>
+        <v>33240.625</v>
       </c>
       <c r="G78" t="n">
-        <v>31.8766666666667</v>
+        <v>31.87500000000002</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="C79" t="n">
-        <v>31.5</v>
+        <v>31.9</v>
       </c>
       <c r="D79" t="n">
-        <v>31.5</v>
+        <v>31.9</v>
       </c>
       <c r="E79" t="n">
         <v>31.5</v>
       </c>
       <c r="F79" t="n">
-        <v>14810.202</v>
+        <v>56019</v>
       </c>
       <c r="G79" t="n">
-        <v>31.86833333333336</v>
+        <v>31.8766666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="C80" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="D80" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="E80" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="F80" t="n">
-        <v>19</v>
+        <v>14810.202</v>
       </c>
       <c r="G80" t="n">
-        <v>31.8666666666667</v>
+        <v>31.86833333333336</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>31.9</v>
       </c>
       <c r="C81" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="D81" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="E81" t="n">
         <v>31.9</v>
       </c>
       <c r="F81" t="n">
-        <v>33203.9949</v>
+        <v>19</v>
       </c>
       <c r="G81" t="n">
         <v>31.8666666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="C82" t="n">
         <v>32.1</v>
@@ -2497,15 +2742,18 @@
         <v>32.1</v>
       </c>
       <c r="E82" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="F82" t="n">
-        <v>400</v>
+        <v>33203.9949</v>
       </c>
       <c r="G82" t="n">
-        <v>31.86166666666669</v>
+        <v>31.8666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>32.1</v>
       </c>
       <c r="F83" t="n">
-        <v>9616.884700000001</v>
+        <v>400</v>
       </c>
       <c r="G83" t="n">
-        <v>31.85666666666669</v>
+        <v>31.86166666666669</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>32.1</v>
       </c>
       <c r="C84" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="D84" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="E84" t="n">
         <v>32.1</v>
       </c>
       <c r="F84" t="n">
-        <v>19827.9014</v>
+        <v>9616.884700000001</v>
       </c>
       <c r="G84" t="n">
-        <v>31.86333333333336</v>
+        <v>31.85666666666669</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="C85" t="n">
         <v>32.2</v>
       </c>
       <c r="D85" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="E85" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="F85" t="n">
-        <v>13323.4953</v>
+        <v>19827.9014</v>
       </c>
       <c r="G85" t="n">
-        <v>31.87000000000003</v>
+        <v>31.86333333333336</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="C86" t="n">
         <v>32.2</v>
       </c>
       <c r="D86" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="E86" t="n">
         <v>32.2</v>
       </c>
       <c r="F86" t="n">
-        <v>10.1</v>
+        <v>13323.4953</v>
       </c>
       <c r="G86" t="n">
-        <v>31.87833333333336</v>
+        <v>31.87000000000003</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>32.2</v>
       </c>
       <c r="C87" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="D87" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="E87" t="n">
         <v>32.2</v>
       </c>
       <c r="F87" t="n">
-        <v>91777.7215</v>
+        <v>10.1</v>
       </c>
       <c r="G87" t="n">
-        <v>31.8866666666667</v>
+        <v>31.87833333333336</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C88" t="n">
         <v>32.5</v>
       </c>
-      <c r="C88" t="n">
-        <v>32.6</v>
-      </c>
       <c r="D88" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="E88" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="F88" t="n">
-        <v>105002.4658</v>
+        <v>91777.7215</v>
       </c>
       <c r="G88" t="n">
-        <v>31.89666666666669</v>
+        <v>31.8866666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="C89" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="D89" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="E89" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="F89" t="n">
-        <v>18142.6269</v>
+        <v>105002.4658</v>
       </c>
       <c r="G89" t="n">
-        <v>31.91333333333336</v>
+        <v>31.89666666666669</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>32.7</v>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>18142.6269</v>
       </c>
       <c r="G90" t="n">
-        <v>31.92666666666669</v>
+        <v>31.91333333333336</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C91" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="D91" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E91" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F91" t="n">
-        <v>24549.9539</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>31.93666666666669</v>
+        <v>31.92666666666669</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>32.6</v>
       </c>
       <c r="F92" t="n">
-        <v>2880.008</v>
+        <v>24549.9539</v>
       </c>
       <c r="G92" t="n">
-        <v>31.94666666666669</v>
+        <v>31.93666666666669</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="C93" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="D93" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="E93" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="F93" t="n">
-        <v>125578.4107</v>
+        <v>2880.008</v>
       </c>
       <c r="G93" t="n">
-        <v>31.95833333333336</v>
+        <v>31.94666666666669</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,7 +3081,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="C94" t="n">
         <v>32.9</v>
@@ -2809,15 +3090,18 @@
         <v>32.9</v>
       </c>
       <c r="E94" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="F94" t="n">
-        <v>45604.4893</v>
+        <v>125578.4107</v>
       </c>
       <c r="G94" t="n">
-        <v>31.97000000000002</v>
+        <v>31.95833333333336</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>32.9</v>
       </c>
       <c r="C95" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E95" t="n">
         <v>32.9</v>
       </c>
       <c r="F95" t="n">
-        <v>20517.4522</v>
+        <v>45604.4893</v>
       </c>
       <c r="G95" t="n">
-        <v>31.98333333333336</v>
+        <v>31.97000000000002</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C96" t="n">
         <v>33</v>
       </c>
-      <c r="C96" t="n">
-        <v>33.5</v>
-      </c>
       <c r="D96" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F96" t="n">
-        <v>124104.2682044776</v>
+        <v>20517.4522</v>
       </c>
       <c r="G96" t="n">
-        <v>32.00833333333335</v>
+        <v>31.98333333333336</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="C97" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="D97" t="n">
         <v>33.5</v>
       </c>
       <c r="E97" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="F97" t="n">
-        <v>85313.1773</v>
+        <v>124104.2682044776</v>
       </c>
       <c r="G97" t="n">
-        <v>32.02833333333336</v>
+        <v>32.00833333333335</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,22 +3200,25 @@
         <v>33.4</v>
       </c>
       <c r="C98" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="D98" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E98" t="n">
         <v>33.4</v>
       </c>
-      <c r="E98" t="n">
-        <v>33</v>
-      </c>
       <c r="F98" t="n">
-        <v>43219.9082</v>
+        <v>85313.1773</v>
       </c>
       <c r="G98" t="n">
-        <v>32.04500000000002</v>
+        <v>32.02833333333336</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2930,25 +3226,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="C99" t="n">
         <v>33</v>
       </c>
       <c r="D99" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="E99" t="n">
         <v>33</v>
       </c>
       <c r="F99" t="n">
-        <v>52361.0803</v>
+        <v>43219.9082</v>
       </c>
       <c r="G99" t="n">
-        <v>32.05833333333336</v>
+        <v>32.04500000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C100" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D100" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="E100" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F100" t="n">
-        <v>56716.3962</v>
+        <v>52361.0803</v>
       </c>
       <c r="G100" t="n">
-        <v>32.08833333333335</v>
+        <v>32.05833333333336</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C101" t="n">
         <v>33.2</v>
@@ -2991,15 +3293,18 @@
         <v>33.2</v>
       </c>
       <c r="E101" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F101" t="n">
-        <v>23086.474</v>
+        <v>56716.3962</v>
       </c>
       <c r="G101" t="n">
-        <v>32.10666666666669</v>
+        <v>32.08833333333335</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="C102" t="n">
-        <v>32.7</v>
+        <v>33.2</v>
       </c>
       <c r="D102" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="E102" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="F102" t="n">
-        <v>10179.2132</v>
+        <v>23086.474</v>
       </c>
       <c r="G102" t="n">
-        <v>32.11500000000002</v>
+        <v>32.10666666666669</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="C103" t="n">
-        <v>33.3</v>
+        <v>32.7</v>
       </c>
       <c r="D103" t="n">
-        <v>33.3</v>
+        <v>32.8</v>
       </c>
       <c r="E103" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F103" t="n">
-        <v>11738.5808</v>
+        <v>10179.2132</v>
       </c>
       <c r="G103" t="n">
-        <v>32.13666666666669</v>
+        <v>32.11500000000002</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3069,15 +3380,18 @@
         <v>33.3</v>
       </c>
       <c r="E104" t="n">
-        <v>33.2</v>
+        <v>32.6</v>
       </c>
       <c r="F104" t="n">
-        <v>40829.7597</v>
+        <v>11738.5808</v>
       </c>
       <c r="G104" t="n">
-        <v>32.16666666666669</v>
+        <v>32.13666666666669</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C105" t="n">
         <v>33.3</v>
-      </c>
-      <c r="C105" t="n">
-        <v>32.4</v>
       </c>
       <c r="D105" t="n">
         <v>33.3</v>
       </c>
       <c r="E105" t="n">
-        <v>32.4</v>
+        <v>33.2</v>
       </c>
       <c r="F105" t="n">
-        <v>34096.9811</v>
+        <v>40829.7597</v>
       </c>
       <c r="G105" t="n">
-        <v>32.18166666666669</v>
+        <v>32.16666666666669</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>32.5</v>
+        <v>33.3</v>
       </c>
       <c r="C106" t="n">
-        <v>33.1</v>
+        <v>32.4</v>
       </c>
       <c r="D106" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="E106" t="n">
         <v>32.4</v>
       </c>
       <c r="F106" t="n">
-        <v>300.1259</v>
+        <v>34096.9811</v>
       </c>
       <c r="G106" t="n">
-        <v>32.20333333333335</v>
+        <v>32.18166666666669</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="C107" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D107" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E107" t="n">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="F107" t="n">
-        <v>59696.4848</v>
+        <v>300.1259</v>
       </c>
       <c r="G107" t="n">
-        <v>32.22166666666669</v>
+        <v>32.20333333333335</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C108" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D108" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="E108" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="F108" t="n">
-        <v>28170.2275</v>
+        <v>59696.4848</v>
       </c>
       <c r="G108" t="n">
-        <v>32.23333333333336</v>
+        <v>32.22166666666669</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="C109" t="n">
         <v>32.7</v>
       </c>
       <c r="D109" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E109" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F109" t="n">
-        <v>59897.3516</v>
+        <v>28170.2275</v>
       </c>
       <c r="G109" t="n">
-        <v>32.24500000000003</v>
+        <v>32.23333333333336</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>32.6</v>
       </c>
       <c r="C110" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="D110" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E110" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="F110" t="n">
-        <v>39788.6729</v>
+        <v>59897.3516</v>
       </c>
       <c r="G110" t="n">
-        <v>32.25333333333336</v>
+        <v>32.24500000000003</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="C111" t="n">
         <v>32.5</v>
       </c>
       <c r="D111" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="E111" t="n">
         <v>32.5</v>
       </c>
       <c r="F111" t="n">
-        <v>1227.6625</v>
+        <v>39788.6729</v>
       </c>
       <c r="G111" t="n">
-        <v>32.26166666666669</v>
+        <v>32.25333333333336</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
       <c r="C112" t="n">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
       <c r="D112" t="n">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
       <c r="E112" t="n">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
       <c r="F112" t="n">
-        <v>5145.9516</v>
+        <v>1227.6625</v>
       </c>
       <c r="G112" t="n">
-        <v>32.28000000000002</v>
+        <v>32.26166666666669</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>32.7</v>
+        <v>33.1</v>
       </c>
       <c r="C113" t="n">
-        <v>32</v>
+        <v>33.1</v>
       </c>
       <c r="D113" t="n">
-        <v>32.7</v>
+        <v>33.1</v>
       </c>
       <c r="E113" t="n">
-        <v>32</v>
+        <v>33.1</v>
       </c>
       <c r="F113" t="n">
-        <v>102688.8817</v>
+        <v>5145.9516</v>
       </c>
       <c r="G113" t="n">
         <v>32.28000000000002</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C114" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D114" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E114" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="F114" t="n">
-        <v>70.32510000000001</v>
+        <v>102688.8817</v>
       </c>
       <c r="G114" t="n">
-        <v>32.29666666666669</v>
+        <v>32.28000000000002</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>32.6</v>
       </c>
       <c r="C115" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="D115" t="n">
         <v>32.6</v>
       </c>
       <c r="E115" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="F115" t="n">
-        <v>16</v>
+        <v>70.32510000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>32.31666666666668</v>
+        <v>32.29666666666669</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>32.6</v>
       </c>
       <c r="C116" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="D116" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="E116" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="F116" t="n">
-        <v>50702.3338</v>
+        <v>16</v>
       </c>
       <c r="G116" t="n">
-        <v>32.32333333333335</v>
+        <v>32.31666666666668</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="C117" t="n">
         <v>32.1</v>
       </c>
       <c r="D117" t="n">
-        <v>32.1</v>
+        <v>32.7</v>
       </c>
       <c r="E117" t="n">
         <v>32.1</v>
       </c>
       <c r="F117" t="n">
-        <v>4279.3508</v>
+        <v>50702.3338</v>
       </c>
       <c r="G117" t="n">
-        <v>32.32666666666668</v>
+        <v>32.32333333333335</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3427,21 +3780,24 @@
         <v>32.1</v>
       </c>
       <c r="C118" t="n">
-        <v>32.7</v>
+        <v>32.1</v>
       </c>
       <c r="D118" t="n">
-        <v>32.7</v>
+        <v>32.1</v>
       </c>
       <c r="E118" t="n">
         <v>32.1</v>
       </c>
       <c r="F118" t="n">
-        <v>50004.6532</v>
+        <v>4279.3508</v>
       </c>
       <c r="G118" t="n">
-        <v>32.34000000000001</v>
+        <v>32.32666666666668</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="C119" t="n">
-        <v>31.9</v>
+        <v>32.7</v>
       </c>
       <c r="D119" t="n">
-        <v>32</v>
+        <v>32.7</v>
       </c>
       <c r="E119" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="F119" t="n">
-        <v>20409.9494</v>
+        <v>50004.6532</v>
       </c>
       <c r="G119" t="n">
-        <v>32.35166666666668</v>
+        <v>32.34000000000001</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="C120" t="n">
         <v>31.9</v>
       </c>
       <c r="D120" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="E120" t="n">
         <v>31.9</v>
       </c>
       <c r="F120" t="n">
-        <v>10427.1092</v>
+        <v>20409.9494</v>
       </c>
       <c r="G120" t="n">
-        <v>32.35333333333335</v>
+        <v>32.35166666666668</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>32.4</v>
+        <v>31.9</v>
       </c>
       <c r="C121" t="n">
-        <v>32.7</v>
+        <v>31.9</v>
       </c>
       <c r="D121" t="n">
-        <v>32.7</v>
+        <v>31.9</v>
       </c>
       <c r="E121" t="n">
-        <v>32.4</v>
+        <v>31.9</v>
       </c>
       <c r="F121" t="n">
-        <v>64945.0763</v>
+        <v>10427.1092</v>
       </c>
       <c r="G121" t="n">
-        <v>32.36833333333335</v>
+        <v>32.35333333333335</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="C122" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E122" t="n">
         <v>32.4</v>
       </c>
-      <c r="D122" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E122" t="n">
-        <v>32</v>
-      </c>
       <c r="F122" t="n">
-        <v>159054.9947</v>
+        <v>64945.0763</v>
       </c>
       <c r="G122" t="n">
-        <v>32.37833333333335</v>
+        <v>32.36833333333335</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="C123" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="D123" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="E123" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="F123" t="n">
-        <v>57904.4387</v>
+        <v>159054.9947</v>
       </c>
       <c r="G123" t="n">
-        <v>32.39500000000002</v>
+        <v>32.37833333333335</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="C124" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="D124" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E124" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="F124" t="n">
-        <v>1595.6134</v>
+        <v>57904.4387</v>
       </c>
       <c r="G124" t="n">
-        <v>32.41000000000002</v>
+        <v>32.39500000000002</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>32.6</v>
       </c>
       <c r="F125" t="n">
-        <v>19721.9042</v>
+        <v>1595.6134</v>
       </c>
       <c r="G125" t="n">
-        <v>32.42333333333335</v>
+        <v>32.41000000000002</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="C126" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="D126" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="E126" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="F126" t="n">
-        <v>11</v>
+        <v>19721.9042</v>
       </c>
       <c r="G126" t="n">
-        <v>32.44666666666669</v>
+        <v>32.42333333333335</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>32.7</v>
       </c>
       <c r="F127" t="n">
-        <v>4472.15</v>
+        <v>11</v>
       </c>
       <c r="G127" t="n">
-        <v>32.46333333333335</v>
+        <v>32.44666666666669</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C128" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="D128" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E128" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F128" t="n">
-        <v>1053.3105</v>
+        <v>4472.15</v>
       </c>
       <c r="G128" t="n">
-        <v>32.48500000000002</v>
+        <v>32.46333333333335</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3716,18 +4102,21 @@
         <v>32.6</v>
       </c>
       <c r="D129" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="E129" t="n">
         <v>32.6</v>
       </c>
       <c r="F129" t="n">
-        <v>80</v>
+        <v>1053.3105</v>
       </c>
       <c r="G129" t="n">
-        <v>32.50666666666668</v>
+        <v>32.48500000000002</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="C130" t="n">
-        <v>32</v>
+        <v>32.6</v>
       </c>
       <c r="D130" t="n">
-        <v>32.3</v>
+        <v>32.7</v>
       </c>
       <c r="E130" t="n">
-        <v>32</v>
+        <v>32.6</v>
       </c>
       <c r="F130" t="n">
-        <v>38714.7579</v>
+        <v>80</v>
       </c>
       <c r="G130" t="n">
         <v>32.50666666666668</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="C131" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D131" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="E131" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="F131" t="n">
-        <v>11</v>
+        <v>38714.7579</v>
       </c>
       <c r="G131" t="n">
-        <v>32.51500000000001</v>
+        <v>32.50666666666668</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="C132" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="D132" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="E132" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="F132" t="n">
-        <v>19827.9816</v>
+        <v>11</v>
       </c>
       <c r="G132" t="n">
         <v>32.51500000000001</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="C133" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="D133" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="E133" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>19827.9816</v>
       </c>
       <c r="G133" t="n">
-        <v>32.52166666666668</v>
+        <v>32.51500000000001</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="C134" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="D134" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="E134" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="F134" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>32.52833333333335</v>
+        <v>32.52166666666668</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="C135" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="D135" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="E135" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="F135" t="n">
-        <v>153.031</v>
+        <v>21</v>
       </c>
       <c r="G135" t="n">
-        <v>32.53166666666668</v>
+        <v>32.52833333333335</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="C136" t="n">
-        <v>31.6</v>
+        <v>32.1</v>
       </c>
       <c r="D136" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="E136" t="n">
-        <v>31.6</v>
+        <v>32.1</v>
       </c>
       <c r="F136" t="n">
-        <v>68837.40240000001</v>
+        <v>153.031</v>
       </c>
       <c r="G136" t="n">
-        <v>32.52666666666668</v>
+        <v>32.53166666666668</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="C137" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="D137" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="E137" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="F137" t="n">
-        <v>557.0976000000001</v>
+        <v>68837.40240000001</v>
       </c>
       <c r="G137" t="n">
-        <v>32.52166666666668</v>
+        <v>32.52666666666668</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="C138" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="D138" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="E138" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>557.0976000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>32.52333333333334</v>
+        <v>32.52166666666668</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="C139" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="D139" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="E139" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="F139" t="n">
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>32.53500000000001</v>
+        <v>32.52333333333334</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="C140" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="D140" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="E140" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="F140" t="n">
-        <v>10503.8488</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>32.53333333333334</v>
+        <v>32.53500000000001</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="C141" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="D141" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="E141" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="F141" t="n">
-        <v>12</v>
+        <v>10503.8488</v>
       </c>
       <c r="G141" t="n">
         <v>32.53333333333334</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>32.1</v>
       </c>
       <c r="C142" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="D142" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="E142" t="n">
         <v>32.1</v>
       </c>
       <c r="F142" t="n">
-        <v>8882.5766</v>
+        <v>12</v>
       </c>
       <c r="G142" t="n">
-        <v>32.53500000000001</v>
+        <v>32.53333333333334</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,7 +4502,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="C143" t="n">
         <v>32.2</v>
@@ -4083,15 +4511,18 @@
         <v>32.2</v>
       </c>
       <c r="E143" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="F143" t="n">
-        <v>5789.2239</v>
+        <v>8882.5766</v>
       </c>
       <c r="G143" t="n">
-        <v>32.53666666666668</v>
+        <v>32.53500000000001</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="C144" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="D144" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="E144" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="F144" t="n">
-        <v>15</v>
+        <v>5789.2239</v>
       </c>
       <c r="G144" t="n">
-        <v>32.54166666666668</v>
+        <v>32.53666666666668</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>32.5</v>
       </c>
       <c r="C145" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="D145" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="E145" t="n">
         <v>32.5</v>
       </c>
       <c r="F145" t="n">
-        <v>74264.67879999999</v>
+        <v>15</v>
       </c>
       <c r="G145" t="n">
-        <v>32.55000000000001</v>
+        <v>32.54166666666668</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="C146" t="n">
-        <v>32.2</v>
+        <v>32.7</v>
       </c>
       <c r="D146" t="n">
         <v>32.7</v>
       </c>
       <c r="E146" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="F146" t="n">
-        <v>242</v>
+        <v>74264.67879999999</v>
       </c>
       <c r="G146" t="n">
         <v>32.55000000000001</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C147" t="n">
-        <v>32.7</v>
+        <v>32.2</v>
       </c>
       <c r="D147" t="n">
         <v>32.7</v>
       </c>
       <c r="E147" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="F147" t="n">
-        <v>66385.69010000001</v>
+        <v>242</v>
       </c>
       <c r="G147" t="n">
-        <v>32.55333333333335</v>
+        <v>32.55000000000001</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="C148" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="D148" t="n">
         <v>32.7</v>
       </c>
       <c r="E148" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="F148" t="n">
-        <v>4905.3678</v>
+        <v>66385.69010000001</v>
       </c>
       <c r="G148" t="n">
-        <v>32.55000000000002</v>
+        <v>32.55333333333335</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C149" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="D149" t="n">
         <v>32.7</v>
       </c>
       <c r="E149" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="F149" t="n">
-        <v>61822.5228</v>
+        <v>4905.3678</v>
       </c>
       <c r="G149" t="n">
         <v>32.55000000000002</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="C150" t="n">
         <v>32.7</v>
@@ -4265,15 +4714,18 @@
         <v>32.7</v>
       </c>
       <c r="E150" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="F150" t="n">
-        <v>59498.1942</v>
+        <v>61822.5228</v>
       </c>
       <c r="G150" t="n">
         <v>32.55000000000002</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4285,21 +4737,24 @@
         <v>32.7</v>
       </c>
       <c r="C151" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="D151" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="E151" t="n">
         <v>32.7</v>
       </c>
       <c r="F151" t="n">
-        <v>20010</v>
+        <v>59498.1942</v>
       </c>
       <c r="G151" t="n">
-        <v>32.55333333333335</v>
+        <v>32.55000000000002</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,7 +4763,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="C152" t="n">
         <v>32.8</v>
@@ -4317,15 +4772,18 @@
         <v>32.8</v>
       </c>
       <c r="E152" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="F152" t="n">
-        <v>457</v>
+        <v>20010</v>
       </c>
       <c r="G152" t="n">
-        <v>32.55666666666669</v>
+        <v>32.55333333333335</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>32.8</v>
       </c>
       <c r="C153" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="D153" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="E153" t="n">
         <v>32.8</v>
       </c>
       <c r="F153" t="n">
-        <v>124.6385</v>
+        <v>457</v>
       </c>
       <c r="G153" t="n">
-        <v>32.56166666666668</v>
+        <v>32.55666666666669</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,7 +4821,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="C154" t="n">
         <v>33.2</v>
@@ -4369,15 +4830,18 @@
         <v>33.2</v>
       </c>
       <c r="E154" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="F154" t="n">
-        <v>10</v>
+        <v>124.6385</v>
       </c>
       <c r="G154" t="n">
-        <v>32.56666666666668</v>
+        <v>32.56166666666668</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>33.2</v>
       </c>
       <c r="F155" t="n">
-        <v>5334.1867</v>
+        <v>10</v>
       </c>
       <c r="G155" t="n">
-        <v>32.57000000000001</v>
+        <v>32.56666666666668</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +4879,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C156" t="n">
         <v>33.2</v>
@@ -4421,15 +4888,18 @@
         <v>33.2</v>
       </c>
       <c r="E156" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F156" t="n">
-        <v>31812.7977</v>
+        <v>5334.1867</v>
       </c>
       <c r="G156" t="n">
-        <v>32.56500000000002</v>
+        <v>32.57000000000001</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>33.1</v>
       </c>
       <c r="C157" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="D157" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E157" t="n">
         <v>33.1</v>
       </c>
       <c r="F157" t="n">
-        <v>1747.3867</v>
+        <v>31812.7977</v>
       </c>
       <c r="G157" t="n">
-        <v>32.56000000000002</v>
+        <v>32.56500000000002</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="C158" t="n">
-        <v>32.6</v>
+        <v>33.1</v>
       </c>
       <c r="D158" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="E158" t="n">
-        <v>32.6</v>
+        <v>33.1</v>
       </c>
       <c r="F158" t="n">
-        <v>5320.8513</v>
+        <v>1747.3867</v>
       </c>
       <c r="G158" t="n">
-        <v>32.55333333333335</v>
+        <v>32.56000000000002</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,21 +4969,24 @@
         <v>32.9</v>
       </c>
       <c r="C159" t="n">
-        <v>33</v>
+        <v>32.6</v>
       </c>
       <c r="D159" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E159" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="F159" t="n">
-        <v>282.0816</v>
+        <v>5320.8513</v>
       </c>
       <c r="G159" t="n">
         <v>32.55333333333335</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>32.9</v>
       </c>
       <c r="C160" t="n">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="D160" t="n">
+        <v>33</v>
+      </c>
+      <c r="E160" t="n">
         <v>32.9</v>
       </c>
-      <c r="E160" t="n">
-        <v>32.5</v>
-      </c>
       <c r="F160" t="n">
-        <v>32677.3061</v>
+        <v>282.0816</v>
       </c>
       <c r="G160" t="n">
-        <v>32.54166666666668</v>
+        <v>32.55333333333335</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4545,21 +5027,24 @@
         <v>32.9</v>
       </c>
       <c r="C161" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="D161" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E161" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="F161" t="n">
-        <v>29467.303</v>
+        <v>32677.3061</v>
       </c>
       <c r="G161" t="n">
-        <v>32.53833333333334</v>
+        <v>32.54166666666668</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C162" t="n">
         <v>33</v>
       </c>
-      <c r="C162" t="n">
-        <v>33.1</v>
-      </c>
       <c r="D162" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E162" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F162" t="n">
-        <v>44596.636</v>
+        <v>29467.303</v>
       </c>
       <c r="G162" t="n">
-        <v>32.54500000000001</v>
+        <v>32.53833333333334</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>33</v>
+      </c>
+      <c r="C163" t="n">
         <v>33.1</v>
       </c>
-      <c r="C163" t="n">
-        <v>33.2</v>
-      </c>
       <c r="D163" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="E163" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F163" t="n">
-        <v>30000</v>
+        <v>44596.636</v>
       </c>
       <c r="G163" t="n">
-        <v>32.54333333333334</v>
+        <v>32.54500000000001</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="C164" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="D164" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="E164" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="F164" t="n">
-        <v>224.0719</v>
+        <v>30000</v>
       </c>
       <c r="G164" t="n">
-        <v>32.53500000000001</v>
+        <v>32.54333333333334</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>32.8</v>
       </c>
       <c r="F165" t="n">
-        <v>11723.9316</v>
+        <v>224.0719</v>
       </c>
       <c r="G165" t="n">
-        <v>32.54166666666667</v>
+        <v>32.53500000000001</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="C166" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="D166" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="E166" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="F166" t="n">
-        <v>268.9514</v>
+        <v>11723.9316</v>
       </c>
       <c r="G166" t="n">
-        <v>32.54333333333334</v>
+        <v>32.54166666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="C167" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="D167" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E167" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F167" t="n">
-        <v>61649.0597</v>
+        <v>268.9514</v>
       </c>
       <c r="G167" t="n">
-        <v>32.55000000000001</v>
+        <v>32.54333333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,7 +5227,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C168" t="n">
         <v>33.4</v>
@@ -4733,15 +5236,18 @@
         <v>33.4</v>
       </c>
       <c r="E168" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="F168" t="n">
-        <v>10909.2814</v>
+        <v>61649.0597</v>
       </c>
       <c r="G168" t="n">
-        <v>32.56166666666668</v>
+        <v>32.55000000000001</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>33.4</v>
       </c>
       <c r="F169" t="n">
-        <v>6799.7462</v>
+        <v>10909.2814</v>
       </c>
       <c r="G169" t="n">
-        <v>32.57333333333334</v>
+        <v>32.56166666666668</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="C170" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="D170" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="E170" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="F170" t="n">
-        <v>6169.3777</v>
+        <v>6799.7462</v>
       </c>
       <c r="G170" t="n">
-        <v>32.59166666666668</v>
+        <v>32.57333333333334</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C171" t="n">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="D171" t="n">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="E171" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="F171" t="n">
-        <v>15045.9574</v>
+        <v>6169.3777</v>
       </c>
       <c r="G171" t="n">
-        <v>32.61500000000002</v>
+        <v>32.59166666666668</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="C172" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="D172" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="E172" t="n">
         <v>33.7</v>
       </c>
       <c r="F172" t="n">
-        <v>56516.6567</v>
+        <v>15045.9574</v>
       </c>
       <c r="G172" t="n">
-        <v>32.62500000000001</v>
+        <v>32.61500000000002</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C173" t="n">
         <v>33.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>33.6</v>
       </c>
       <c r="D173" t="n">
         <v>33.8</v>
       </c>
       <c r="E173" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F173" t="n">
-        <v>53137.4556</v>
+        <v>56516.6567</v>
       </c>
       <c r="G173" t="n">
-        <v>32.65166666666668</v>
+        <v>32.62500000000001</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C174" t="n">
         <v>33.6</v>
       </c>
-      <c r="C174" t="n">
-        <v>33.3</v>
-      </c>
       <c r="D174" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E174" t="n">
         <v>33.6</v>
       </c>
-      <c r="E174" t="n">
-        <v>33.3</v>
-      </c>
       <c r="F174" t="n">
-        <v>11085.9726</v>
+        <v>53137.4556</v>
       </c>
       <c r="G174" t="n">
-        <v>32.66500000000001</v>
+        <v>32.65166666666668</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C175" t="n">
         <v>33.3</v>
       </c>
-      <c r="C175" t="n">
-        <v>32.6</v>
-      </c>
       <c r="D175" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E175" t="n">
         <v>33.3</v>
       </c>
-      <c r="E175" t="n">
-        <v>32.6</v>
-      </c>
       <c r="F175" t="n">
-        <v>866</v>
+        <v>11085.9726</v>
       </c>
       <c r="G175" t="n">
         <v>32.66500000000001</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="C176" t="n">
-        <v>33</v>
+        <v>32.6</v>
       </c>
       <c r="D176" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="E176" t="n">
-        <v>33</v>
+        <v>32.6</v>
       </c>
       <c r="F176" t="n">
-        <v>547929.5932999999</v>
+        <v>866</v>
       </c>
       <c r="G176" t="n">
-        <v>32.68000000000001</v>
+        <v>32.66500000000001</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,7 +5488,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C177" t="n">
         <v>33</v>
@@ -4967,15 +5497,18 @@
         <v>33</v>
       </c>
       <c r="E177" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F177" t="n">
-        <v>25276.2207</v>
+        <v>547929.5932999999</v>
       </c>
       <c r="G177" t="n">
-        <v>32.69500000000001</v>
+        <v>32.68000000000001</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>33.3</v>
+        <v>32.9</v>
       </c>
       <c r="C178" t="n">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="D178" t="n">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="E178" t="n">
-        <v>33.3</v>
+        <v>32.9</v>
       </c>
       <c r="F178" t="n">
-        <v>13281.1011</v>
+        <v>25276.2207</v>
       </c>
       <c r="G178" t="n">
-        <v>32.71000000000002</v>
+        <v>32.69500000000001</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,10 +5546,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C179" t="n">
         <v>33.6</v>
-      </c>
-      <c r="C179" t="n">
-        <v>33.3</v>
       </c>
       <c r="D179" t="n">
         <v>33.6</v>
@@ -5022,12 +5558,15 @@
         <v>33.3</v>
       </c>
       <c r="F179" t="n">
-        <v>5803.279</v>
+        <v>13281.1011</v>
       </c>
       <c r="G179" t="n">
-        <v>32.73333333333334</v>
+        <v>32.71000000000002</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="C180" t="n">
         <v>33.3</v>
       </c>
       <c r="D180" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="E180" t="n">
         <v>33.3</v>
       </c>
       <c r="F180" t="n">
-        <v>147.3638</v>
+        <v>5803.279</v>
       </c>
       <c r="G180" t="n">
-        <v>32.75666666666667</v>
+        <v>32.73333333333334</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="C181" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="D181" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="E181" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="F181" t="n">
-        <v>33.5</v>
+        <v>147.3638</v>
       </c>
       <c r="G181" t="n">
-        <v>32.77000000000001</v>
+        <v>32.75666666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5100,12 +5645,15 @@
         <v>33.5</v>
       </c>
       <c r="F182" t="n">
-        <v>9935.513000000001</v>
+        <v>33.5</v>
       </c>
       <c r="G182" t="n">
-        <v>32.78833333333334</v>
+        <v>32.77000000000001</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="C183" t="n">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="D183" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="E183" t="n">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="F183" t="n">
-        <v>9910.674300000001</v>
+        <v>9935.513000000001</v>
       </c>
       <c r="G183" t="n">
-        <v>32.795</v>
+        <v>32.78833333333334</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5143,21 +5694,24 @@
         <v>33.2</v>
       </c>
       <c r="C184" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D184" t="n">
         <v>33.2</v>
       </c>
       <c r="E184" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F184" t="n">
-        <v>320600.1278</v>
+        <v>9910.674300000001</v>
       </c>
       <c r="G184" t="n">
-        <v>32.80166666666667</v>
+        <v>32.795</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="C185" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D185" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="E185" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="F185" t="n">
-        <v>48927.0393</v>
+        <v>320600.1278</v>
       </c>
       <c r="G185" t="n">
-        <v>32.80333333333334</v>
+        <v>32.80166666666667</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C186" t="n">
         <v>32.7</v>
       </c>
       <c r="D186" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E186" t="n">
         <v>32.7</v>
       </c>
       <c r="F186" t="n">
-        <v>53750.836</v>
+        <v>48927.0393</v>
       </c>
       <c r="G186" t="n">
         <v>32.80333333333334</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="C187" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="D187" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="E187" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="F187" t="n">
-        <v>19786.9595</v>
+        <v>53750.836</v>
       </c>
       <c r="G187" t="n">
-        <v>32.80833333333334</v>
+        <v>32.80333333333334</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="C188" t="n">
         <v>33</v>
       </c>
       <c r="D188" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E188" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F188" t="n">
-        <v>24557.8911</v>
+        <v>19786.9595</v>
       </c>
       <c r="G188" t="n">
-        <v>32.81500000000001</v>
+        <v>32.80833333333334</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>32.7</v>
+        <v>33.1</v>
       </c>
       <c r="C189" t="n">
-        <v>32.6</v>
+        <v>33</v>
       </c>
       <c r="D189" t="n">
-        <v>32.7</v>
+        <v>33.1</v>
       </c>
       <c r="E189" t="n">
-        <v>32.6</v>
+        <v>33</v>
       </c>
       <c r="F189" t="n">
-        <v>2845.3512</v>
+        <v>24557.8911</v>
       </c>
       <c r="G189" t="n">
         <v>32.81500000000001</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C190" t="n">
         <v>32.6</v>
       </c>
       <c r="D190" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E190" t="n">
         <v>32.6</v>
       </c>
       <c r="F190" t="n">
-        <v>2090.3267</v>
+        <v>2845.3512</v>
       </c>
       <c r="G190" t="n">
-        <v>32.82500000000001</v>
+        <v>32.81500000000001</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="C191" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="D191" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="E191" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="F191" t="n">
-        <v>28833.9184</v>
+        <v>2090.3267</v>
       </c>
       <c r="G191" t="n">
-        <v>32.82833333333334</v>
+        <v>32.82500000000001</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>32.7</v>
       </c>
       <c r="F192" t="n">
-        <v>4581.0071</v>
+        <v>28833.9184</v>
       </c>
       <c r="G192" t="n">
-        <v>32.84000000000001</v>
+        <v>32.82833333333334</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C193" t="n">
         <v>32.7</v>
       </c>
       <c r="D193" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E193" t="n">
         <v>32.7</v>
       </c>
       <c r="F193" t="n">
-        <v>19781.4671</v>
+        <v>4581.0071</v>
       </c>
       <c r="G193" t="n">
-        <v>32.84666666666668</v>
+        <v>32.84000000000001</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>32.7</v>
       </c>
       <c r="F194" t="n">
-        <v>74795.852</v>
+        <v>19781.4671</v>
       </c>
       <c r="G194" t="n">
-        <v>32.85166666666667</v>
+        <v>32.84666666666668</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>32.7</v>
       </c>
       <c r="F195" t="n">
-        <v>30195.6671</v>
+        <v>74795.852</v>
       </c>
       <c r="G195" t="n">
-        <v>32.86166666666668</v>
+        <v>32.85166666666667</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="C196" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="D196" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="E196" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="F196" t="n">
-        <v>11</v>
+        <v>30195.6671</v>
       </c>
       <c r="G196" t="n">
-        <v>32.88333333333335</v>
+        <v>32.86166666666668</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,21 +6071,24 @@
         <v>32.9</v>
       </c>
       <c r="C197" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="D197" t="n">
         <v>32.9</v>
       </c>
       <c r="E197" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="F197" t="n">
-        <v>14279.0307</v>
+        <v>11</v>
       </c>
       <c r="G197" t="n">
-        <v>32.90000000000001</v>
+        <v>32.88333333333335</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5507,21 +6100,24 @@
         <v>32.9</v>
       </c>
       <c r="C198" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="D198" t="n">
         <v>32.9</v>
       </c>
       <c r="E198" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="F198" t="n">
-        <v>11</v>
+        <v>14279.0307</v>
       </c>
       <c r="G198" t="n">
-        <v>32.91500000000001</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>32.9</v>
       </c>
       <c r="F199" t="n">
-        <v>12730.8868</v>
+        <v>11</v>
       </c>
       <c r="G199" t="n">
-        <v>32.92666666666668</v>
+        <v>32.91500000000001</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C200" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D200" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E200" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F200" t="n">
-        <v>304</v>
+        <v>12730.8868</v>
       </c>
       <c r="G200" t="n">
-        <v>32.94666666666669</v>
+        <v>32.92666666666668</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>33</v>
       </c>
       <c r="F201" t="n">
-        <v>20851.1376</v>
+        <v>304</v>
       </c>
       <c r="G201" t="n">
-        <v>32.96166666666669</v>
+        <v>32.94666666666669</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C202" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D202" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E202" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F202" t="n">
-        <v>270.1249</v>
+        <v>20851.1376</v>
       </c>
       <c r="G202" t="n">
-        <v>32.97666666666668</v>
+        <v>32.96166666666669</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,7 +6242,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C203" t="n">
         <v>33.1</v>
@@ -5643,15 +6251,18 @@
         <v>33.1</v>
       </c>
       <c r="E203" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F203" t="n">
-        <v>3719.033232628399</v>
+        <v>270.1249</v>
       </c>
       <c r="G203" t="n">
-        <v>32.99166666666668</v>
+        <v>32.97666666666668</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,7 +6271,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C204" t="n">
         <v>33.1</v>
@@ -5669,15 +6280,18 @@
         <v>33.1</v>
       </c>
       <c r="E204" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F204" t="n">
-        <v>1794.841867371601</v>
+        <v>3719.033232628399</v>
       </c>
       <c r="G204" t="n">
-        <v>33.00166666666668</v>
+        <v>32.99166666666668</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,21 +6303,24 @@
         <v>33.1</v>
       </c>
       <c r="C205" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D205" t="n">
         <v>33.1</v>
       </c>
       <c r="E205" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F205" t="n">
-        <v>44460.8328</v>
+        <v>1794.841867371601</v>
       </c>
       <c r="G205" t="n">
-        <v>33.00666666666668</v>
+        <v>33.00166666666668</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C206" t="n">
         <v>33</v>
       </c>
-      <c r="C206" t="n">
-        <v>33.2</v>
-      </c>
       <c r="D206" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="E206" t="n">
         <v>33</v>
       </c>
       <c r="F206" t="n">
-        <v>44763.8632</v>
+        <v>44460.8328</v>
       </c>
       <c r="G206" t="n">
-        <v>33.02333333333335</v>
+        <v>33.00666666666668</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5741,21 +6361,24 @@
         <v>33</v>
       </c>
       <c r="C207" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="D207" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="E207" t="n">
         <v>33</v>
       </c>
       <c r="F207" t="n">
-        <v>50000</v>
+        <v>44763.8632</v>
       </c>
       <c r="G207" t="n">
-        <v>33.02833333333334</v>
+        <v>33.02333333333335</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5776,12 +6399,15 @@
         <v>33</v>
       </c>
       <c r="F208" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G208" t="n">
-        <v>33.03833333333334</v>
+        <v>33.02833333333334</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5793,21 +6419,24 @@
         <v>33</v>
       </c>
       <c r="C209" t="n">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="D209" t="n">
         <v>33</v>
       </c>
       <c r="E209" t="n">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="F209" t="n">
-        <v>45217.8742326284</v>
+        <v>5000</v>
       </c>
       <c r="G209" t="n">
-        <v>33.03500000000001</v>
+        <v>33.03833333333334</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>32.6</v>
+        <v>33</v>
       </c>
       <c r="C210" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="D210" t="n">
-        <v>32.6</v>
+        <v>33</v>
       </c>
       <c r="E210" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="F210" t="n">
-        <v>9013.4638</v>
+        <v>45217.8742326284</v>
       </c>
       <c r="G210" t="n">
-        <v>33.03333333333334</v>
+        <v>33.03500000000001</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,12 +6486,15 @@
         <v>32.6</v>
       </c>
       <c r="F211" t="n">
-        <v>546.5438</v>
+        <v>9013.4638</v>
       </c>
       <c r="G211" t="n">
-        <v>33.03000000000001</v>
+        <v>33.03333333333334</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="C212" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="D212" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="E212" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="F212" t="n">
-        <v>306.7484</v>
+        <v>546.5438</v>
       </c>
       <c r="G212" t="n">
         <v>33.03000000000001</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>32.8</v>
       </c>
       <c r="F213" t="n">
-        <v>1251.128</v>
+        <v>306.7484</v>
       </c>
       <c r="G213" t="n">
-        <v>33.02333333333334</v>
+        <v>33.03000000000001</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="C214" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="D214" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="E214" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="F214" t="n">
-        <v>6047.7509</v>
+        <v>1251.128</v>
       </c>
       <c r="G214" t="n">
-        <v>33.01333333333334</v>
+        <v>33.02333333333334</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="C215" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="D215" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="E215" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="F215" t="n">
-        <v>6652.1212</v>
+        <v>6047.7509</v>
       </c>
       <c r="G215" t="n">
-        <v>33.00166666666667</v>
+        <v>33.01333333333334</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="C216" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="D216" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="E216" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="F216" t="n">
-        <v>315</v>
+        <v>6652.1212</v>
       </c>
       <c r="G216" t="n">
-        <v>32.99666666666667</v>
+        <v>33.00166666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6004,18 +6654,21 @@
         <v>32.9</v>
       </c>
       <c r="D217" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E217" t="n">
         <v>32.9</v>
       </c>
       <c r="F217" t="n">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="G217" t="n">
-        <v>32.99333333333334</v>
+        <v>32.99666666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>32.9</v>
       </c>
       <c r="F218" t="n">
-        <v>303.9513</v>
+        <v>11</v>
       </c>
       <c r="G218" t="n">
-        <v>32.99833333333334</v>
+        <v>32.99333333333334</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C219" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="D219" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="E219" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="F219" t="n">
-        <v>64198.8541</v>
+        <v>303.9513</v>
       </c>
       <c r="G219" t="n">
-        <v>32.99166666666667</v>
+        <v>32.99833333333334</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="C220" t="n">
         <v>32.6</v>
       </c>
       <c r="D220" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="E220" t="n">
         <v>32.6</v>
       </c>
       <c r="F220" t="n">
-        <v>115.4767</v>
+        <v>64198.8541</v>
       </c>
       <c r="G220" t="n">
-        <v>32.99333333333334</v>
+        <v>32.99166666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +6776,15 @@
         <v>32.6</v>
       </c>
       <c r="F221" t="n">
-        <v>122.3712</v>
+        <v>115.4767</v>
       </c>
       <c r="G221" t="n">
-        <v>32.98666666666667</v>
+        <v>32.99333333333334</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,12 +6805,15 @@
         <v>32.6</v>
       </c>
       <c r="F222" t="n">
-        <v>111702.6687</v>
+        <v>122.3712</v>
       </c>
       <c r="G222" t="n">
-        <v>32.97833333333334</v>
+        <v>32.98666666666667</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>32.6</v>
       </c>
       <c r="F223" t="n">
-        <v>83194.5539</v>
+        <v>111702.6687</v>
       </c>
       <c r="G223" t="n">
-        <v>32.96833333333333</v>
+        <v>32.97833333333334</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="C224" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="D224" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="E224" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="F224" t="n">
-        <v>11</v>
+        <v>83194.5539</v>
       </c>
       <c r="G224" t="n">
-        <v>32.97000000000001</v>
+        <v>32.96833333333333</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6209,21 +6883,24 @@
         <v>32.9</v>
       </c>
       <c r="C225" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D225" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E225" t="n">
         <v>32.9</v>
       </c>
       <c r="F225" t="n">
-        <v>19023.0806673716</v>
+        <v>11</v>
       </c>
       <c r="G225" t="n">
-        <v>32.97333333333334</v>
+        <v>32.97000000000001</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="C226" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D226" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E226" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="F226" t="n">
-        <v>11</v>
+        <v>19023.0806673716</v>
       </c>
       <c r="G226" t="n">
         <v>32.97333333333334</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="C227" t="n">
-        <v>32.7</v>
+        <v>33.2</v>
       </c>
       <c r="D227" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="E227" t="n">
-        <v>32.7</v>
+        <v>33.2</v>
       </c>
       <c r="F227" t="n">
-        <v>28102.4897</v>
+        <v>11</v>
       </c>
       <c r="G227" t="n">
-        <v>32.96166666666667</v>
+        <v>32.97333333333334</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="C228" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="D228" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="E228" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F228" t="n">
-        <v>20000</v>
+        <v>28102.4897</v>
       </c>
       <c r="G228" t="n">
-        <v>32.94833333333334</v>
+        <v>32.96166666666667</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C229" t="n">
         <v>32.6</v>
       </c>
       <c r="D229" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E229" t="n">
         <v>32.6</v>
       </c>
       <c r="F229" t="n">
-        <v>520.0255</v>
+        <v>20000</v>
       </c>
       <c r="G229" t="n">
-        <v>32.935</v>
+        <v>32.94833333333334</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6339,21 +7028,24 @@
         <v>32.6</v>
       </c>
       <c r="C230" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="D230" t="n">
         <v>32.6</v>
       </c>
       <c r="E230" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="F230" t="n">
-        <v>88109.1765</v>
+        <v>520.0255</v>
       </c>
       <c r="G230" t="n">
-        <v>32.91</v>
+        <v>32.935</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>32</v>
+        <v>32.6</v>
       </c>
       <c r="C231" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="D231" t="n">
-        <v>32</v>
+        <v>32.6</v>
       </c>
       <c r="E231" t="n">
-        <v>31.5</v>
+        <v>32.1</v>
       </c>
       <c r="F231" t="n">
-        <v>22314.9011</v>
+        <v>88109.1765</v>
       </c>
       <c r="G231" t="n">
-        <v>32.87</v>
+        <v>32.91</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="C232" t="n">
         <v>31.5</v>
       </c>
       <c r="D232" t="n">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="E232" t="n">
         <v>31.5</v>
       </c>
       <c r="F232" t="n">
-        <v>7500.9115</v>
+        <v>22314.9011</v>
       </c>
       <c r="G232" t="n">
-        <v>32.83333333333333</v>
+        <v>32.87</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="C233" t="n">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="D233" t="n">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="E233" t="n">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="F233" t="n">
-        <v>11</v>
+        <v>7500.9115</v>
       </c>
       <c r="G233" t="n">
-        <v>32.82</v>
+        <v>32.83333333333333</v>
       </c>
       <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>31.6</v>
+        <v>32.8</v>
       </c>
       <c r="C234" t="n">
-        <v>31.6</v>
+        <v>32.8</v>
       </c>
       <c r="D234" t="n">
-        <v>31.6</v>
+        <v>32.8</v>
       </c>
       <c r="E234" t="n">
-        <v>31.6</v>
+        <v>32.8</v>
       </c>
       <c r="F234" t="n">
-        <v>7186.5357</v>
+        <v>11</v>
       </c>
       <c r="G234" t="n">
-        <v>32.79166666666666</v>
+        <v>32.82</v>
       </c>
       <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>32.7</v>
+        <v>31.6</v>
       </c>
       <c r="C235" t="n">
-        <v>32.7</v>
+        <v>31.6</v>
       </c>
       <c r="D235" t="n">
-        <v>32.7</v>
+        <v>31.6</v>
       </c>
       <c r="E235" t="n">
-        <v>32.7</v>
+        <v>31.6</v>
       </c>
       <c r="F235" t="n">
-        <v>55924.8012</v>
+        <v>7186.5357</v>
       </c>
       <c r="G235" t="n">
-        <v>32.79333333333333</v>
+        <v>32.79166666666666</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>31.7</v>
+        <v>32.7</v>
       </c>
       <c r="C236" t="n">
-        <v>31.7</v>
+        <v>32.7</v>
       </c>
       <c r="D236" t="n">
-        <v>31.7</v>
+        <v>32.7</v>
       </c>
       <c r="E236" t="n">
-        <v>31.7</v>
+        <v>32.7</v>
       </c>
       <c r="F236" t="n">
-        <v>1251.128</v>
+        <v>55924.8012</v>
       </c>
       <c r="G236" t="n">
-        <v>32.77166666666667</v>
+        <v>32.79333333333333</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>32.5</v>
+        <v>31.7</v>
       </c>
       <c r="C237" t="n">
-        <v>32.5</v>
+        <v>31.7</v>
       </c>
       <c r="D237" t="n">
-        <v>32.5</v>
+        <v>31.7</v>
       </c>
       <c r="E237" t="n">
-        <v>32.5</v>
+        <v>31.7</v>
       </c>
       <c r="F237" t="n">
-        <v>11</v>
+        <v>1251.128</v>
       </c>
       <c r="G237" t="n">
-        <v>32.76333333333334</v>
+        <v>32.77166666666667</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="C238" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="D238" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="E238" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="F238" t="n">
-        <v>167.0463</v>
+        <v>11</v>
       </c>
       <c r="G238" t="n">
-        <v>32.73833333333333</v>
+        <v>32.76333333333334</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6573,21 +7289,24 @@
         <v>32.1</v>
       </c>
       <c r="C239" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="D239" t="n">
         <v>32.1</v>
       </c>
       <c r="E239" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="F239" t="n">
-        <v>7821.312</v>
+        <v>167.0463</v>
       </c>
       <c r="G239" t="n">
-        <v>32.715</v>
+        <v>32.73833333333333</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="C240" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="D240" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E240" t="n">
         <v>31.9</v>
       </c>
-      <c r="E240" t="n">
-        <v>31.8</v>
-      </c>
       <c r="F240" t="n">
-        <v>49955.3857</v>
+        <v>7821.312</v>
       </c>
       <c r="G240" t="n">
-        <v>32.69</v>
+        <v>32.715</v>
       </c>
       <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="C241" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="D241" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="E241" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="F241" t="n">
-        <v>138117.7916</v>
+        <v>49955.3857</v>
       </c>
       <c r="G241" t="n">
-        <v>32.65666666666667</v>
+        <v>32.69</v>
       </c>
       <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="C242" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="D242" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="E242" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="F242" t="n">
-        <v>1903.7784</v>
+        <v>138117.7916</v>
       </c>
       <c r="G242" t="n">
-        <v>32.625</v>
+        <v>32.65666666666667</v>
       </c>
       <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>32.5</v>
+        <v>31.6</v>
       </c>
       <c r="C243" t="n">
-        <v>32.5</v>
+        <v>31.6</v>
       </c>
       <c r="D243" t="n">
-        <v>32.5</v>
+        <v>31.6</v>
       </c>
       <c r="E243" t="n">
-        <v>32.5</v>
+        <v>31.6</v>
       </c>
       <c r="F243" t="n">
-        <v>10</v>
+        <v>1903.7784</v>
       </c>
       <c r="G243" t="n">
-        <v>32.615</v>
+        <v>32.625</v>
       </c>
       <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="C244" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="D244" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="E244" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="F244" t="n">
-        <v>101894.194</v>
+        <v>10</v>
       </c>
       <c r="G244" t="n">
-        <v>32.60333333333333</v>
+        <v>32.615</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>32.9</v>
+        <v>32.2</v>
       </c>
       <c r="C245" t="n">
-        <v>32.9</v>
+        <v>32.3</v>
       </c>
       <c r="D245" t="n">
-        <v>32.9</v>
+        <v>32.3</v>
       </c>
       <c r="E245" t="n">
-        <v>32.9</v>
+        <v>32.2</v>
       </c>
       <c r="F245" t="n">
-        <v>21</v>
+        <v>101894.194</v>
       </c>
       <c r="G245" t="n">
-        <v>32.60666666666667</v>
+        <v>32.60333333333333</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6764,12 +7501,15 @@
         <v>32.9</v>
       </c>
       <c r="F246" t="n">
-        <v>4133.0699</v>
+        <v>21</v>
       </c>
       <c r="G246" t="n">
-        <v>32.61</v>
+        <v>32.60666666666667</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6790,12 +7530,15 @@
         <v>32.9</v>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>4133.0699</v>
       </c>
       <c r="G247" t="n">
-        <v>32.60833333333333</v>
+        <v>32.61</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="C248" t="n">
-        <v>32.3</v>
+        <v>32.9</v>
       </c>
       <c r="D248" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="E248" t="n">
-        <v>32.3</v>
+        <v>32.9</v>
       </c>
       <c r="F248" t="n">
-        <v>113858.2824</v>
+        <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>32.59666666666667</v>
+        <v>32.60833333333333</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="C249" t="n">
-        <v>32.9</v>
+        <v>32.3</v>
       </c>
       <c r="D249" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="E249" t="n">
-        <v>32.9</v>
+        <v>32.3</v>
       </c>
       <c r="F249" t="n">
-        <v>11</v>
+        <v>113858.2824</v>
       </c>
       <c r="G249" t="n">
-        <v>32.60166666666667</v>
+        <v>32.59666666666667</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>32.5</v>
+        <v>32.9</v>
       </c>
       <c r="C250" t="n">
-        <v>32.4</v>
+        <v>32.9</v>
       </c>
       <c r="D250" t="n">
-        <v>32.5</v>
+        <v>32.9</v>
       </c>
       <c r="E250" t="n">
-        <v>32.4</v>
+        <v>32.9</v>
       </c>
       <c r="F250" t="n">
-        <v>17160.9376</v>
+        <v>11</v>
       </c>
       <c r="G250" t="n">
-        <v>32.59833333333334</v>
+        <v>32.60166666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="C251" t="n">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="D251" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="E251" t="n">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="F251" t="n">
-        <v>11</v>
+        <v>17160.9376</v>
       </c>
       <c r="G251" t="n">
-        <v>32.60166666666667</v>
+        <v>32.59833333333334</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="C252" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="D252" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="E252" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="F252" t="n">
-        <v>570.8513</v>
+        <v>11</v>
       </c>
       <c r="G252" t="n">
-        <v>32.60000000000001</v>
+        <v>32.60166666666667</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="C253" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="D253" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="E253" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="F253" t="n">
-        <v>86851.1387</v>
+        <v>570.8513</v>
       </c>
       <c r="G253" t="n">
-        <v>32.60333333333334</v>
+        <v>32.60000000000001</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C254" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="D254" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="E254" t="n">
         <v>32.5</v>
       </c>
       <c r="F254" t="n">
-        <v>378588.0117</v>
+        <v>86851.1387</v>
       </c>
       <c r="G254" t="n">
-        <v>32.60166666666667</v>
+        <v>32.60333333333334</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6989,21 +7753,24 @@
         <v>32.6</v>
       </c>
       <c r="C255" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="D255" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="E255" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="F255" t="n">
-        <v>95711.2559</v>
+        <v>378588.0117</v>
       </c>
       <c r="G255" t="n">
-        <v>32.605</v>
+        <v>32.60166666666667</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="C256" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="D256" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="E256" t="n">
         <v>32.4</v>
       </c>
       <c r="F256" t="n">
-        <v>78230.1553</v>
+        <v>95711.2559</v>
       </c>
       <c r="G256" t="n">
-        <v>32.60333333333334</v>
+        <v>32.605</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="C257" t="n">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="D257" t="n">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="E257" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="F257" t="n">
-        <v>54774.5356</v>
+        <v>78230.1553</v>
       </c>
       <c r="G257" t="n">
-        <v>32.61</v>
+        <v>32.60333333333334</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="C258" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D258" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E258" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="F258" t="n">
-        <v>15123.7169</v>
+        <v>54774.5356</v>
       </c>
       <c r="G258" t="n">
-        <v>32.61166666666666</v>
+        <v>32.61</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="C259" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D259" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="E259" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="F259" t="n">
-        <v>11</v>
+        <v>15123.7169</v>
       </c>
       <c r="G259" t="n">
-        <v>32.61666666666667</v>
+        <v>32.61166666666666</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,7 +7895,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C260" t="n">
         <v>33.2</v>
@@ -7125,15 +7904,18 @@
         <v>33.2</v>
       </c>
       <c r="E260" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F260" t="n">
-        <v>17329.3937</v>
+        <v>11</v>
       </c>
       <c r="G260" t="n">
-        <v>32.62</v>
+        <v>32.61666666666667</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="C261" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="D261" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E261" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="F261" t="n">
-        <v>34896.3238</v>
+        <v>17329.3937</v>
       </c>
       <c r="G261" t="n">
-        <v>32.62666666666667</v>
+        <v>32.62</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="C262" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="D262" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E262" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="F262" t="n">
-        <v>30860.2094</v>
+        <v>34896.3238</v>
       </c>
       <c r="G262" t="n">
-        <v>32.63333333333334</v>
+        <v>32.62666666666667</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="C263" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="D263" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="E263" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="F263" t="n">
-        <v>65751.45789999999</v>
+        <v>30860.2094</v>
       </c>
       <c r="G263" t="n">
-        <v>32.64166666666667</v>
+        <v>32.63333333333334</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="C264" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="D264" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="E264" t="n">
         <v>33.2</v>
       </c>
       <c r="F264" t="n">
-        <v>80882.5217</v>
+        <v>65751.45789999999</v>
       </c>
       <c r="G264" t="n">
-        <v>32.64333333333334</v>
+        <v>32.64166666666667</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C265" t="n">
         <v>33.2</v>
       </c>
-      <c r="C265" t="n">
-        <v>32.8</v>
-      </c>
       <c r="D265" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E265" t="n">
         <v>33.2</v>
       </c>
-      <c r="E265" t="n">
-        <v>32.8</v>
-      </c>
       <c r="F265" t="n">
-        <v>54661.7311</v>
+        <v>80882.5217</v>
       </c>
       <c r="G265" t="n">
-        <v>32.64000000000001</v>
+        <v>32.64333333333334</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7275,21 +8072,24 @@
         <v>33.2</v>
       </c>
       <c r="C266" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="D266" t="n">
         <v>33.2</v>
       </c>
       <c r="E266" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="F266" t="n">
-        <v>15</v>
+        <v>54661.7311</v>
       </c>
       <c r="G266" t="n">
         <v>32.64000000000001</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7310,12 +8110,15 @@
         <v>33.2</v>
       </c>
       <c r="F267" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G267" t="n">
-        <v>32.64333333333334</v>
+        <v>32.64000000000001</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="C268" t="n">
-        <v>32.6</v>
+        <v>33.2</v>
       </c>
       <c r="D268" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="E268" t="n">
-        <v>32.6</v>
+        <v>33.2</v>
       </c>
       <c r="F268" t="n">
-        <v>35942</v>
+        <v>11</v>
       </c>
       <c r="G268" t="n">
-        <v>32.63666666666667</v>
+        <v>32.64333333333334</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,24 +8156,27 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="C269" t="n">
-        <v>33.1</v>
+        <v>32.6</v>
       </c>
       <c r="D269" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="E269" t="n">
-        <v>33.1</v>
+        <v>32.6</v>
       </c>
       <c r="F269" t="n">
-        <v>11</v>
+        <v>35942</v>
       </c>
       <c r="G269" t="n">
-        <v>32.64666666666667</v>
+        <v>32.63666666666667</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>32.6</v>
+        <v>33.1</v>
       </c>
       <c r="C270" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="D270" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="E270" t="n">
-        <v>32.6</v>
+        <v>33.1</v>
       </c>
       <c r="F270" t="n">
-        <v>35191.69</v>
+        <v>11</v>
       </c>
       <c r="G270" t="n">
-        <v>32.65166666666667</v>
+        <v>32.64666666666667</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7405,21 +8217,24 @@
         <v>32.6</v>
       </c>
       <c r="C271" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="D271" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="E271" t="n">
         <v>32.6</v>
       </c>
       <c r="F271" t="n">
-        <v>5272.5348</v>
+        <v>35191.69</v>
       </c>
       <c r="G271" t="n">
         <v>32.65166666666667</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7428,24 +8243,27 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="C272" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="D272" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="E272" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="F272" t="n">
-        <v>11</v>
+        <v>5272.5348</v>
       </c>
       <c r="G272" t="n">
-        <v>32.65333333333334</v>
+        <v>32.65166666666667</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="C273" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="D273" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="E273" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="F273" t="n">
         <v>11</v>
       </c>
       <c r="G273" t="n">
-        <v>32.65833333333334</v>
+        <v>32.65333333333334</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7492,12 +8313,15 @@
         <v>33.1</v>
       </c>
       <c r="F274" t="n">
-        <v>1412.0241</v>
+        <v>11</v>
       </c>
       <c r="G274" t="n">
-        <v>32.66666666666667</v>
+        <v>32.65833333333334</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,24 +8330,27 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="C275" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="D275" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="E275" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="F275" t="n">
-        <v>44181.46407185629</v>
+        <v>1412.0241</v>
       </c>
       <c r="G275" t="n">
-        <v>32.68166666666668</v>
+        <v>32.66666666666667</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,7 +8359,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="C276" t="n">
         <v>33.4</v>
@@ -7541,15 +8368,18 @@
         <v>33.4</v>
       </c>
       <c r="E276" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="F276" t="n">
-        <v>17035.3892</v>
+        <v>44181.46407185629</v>
       </c>
       <c r="G276" t="n">
-        <v>32.69000000000001</v>
+        <v>32.68166666666668</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7558,24 +8388,27 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="C277" t="n">
-        <v>32.6</v>
+        <v>33.4</v>
       </c>
       <c r="D277" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="E277" t="n">
-        <v>32.6</v>
+        <v>33.4</v>
       </c>
       <c r="F277" t="n">
-        <v>40633.3191</v>
+        <v>17035.3892</v>
       </c>
       <c r="G277" t="n">
-        <v>32.68500000000001</v>
+        <v>32.69000000000001</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="C278" t="n">
         <v>32.6</v>
       </c>
       <c r="D278" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="E278" t="n">
         <v>32.6</v>
       </c>
       <c r="F278" t="n">
-        <v>2174.7239</v>
+        <v>40633.3191</v>
       </c>
       <c r="G278" t="n">
-        <v>32.68</v>
+        <v>32.68500000000001</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,24 +8446,27 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="C279" t="n">
-        <v>31.5</v>
+        <v>32.6</v>
       </c>
       <c r="D279" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="E279" t="n">
-        <v>31.5</v>
+        <v>32.6</v>
       </c>
       <c r="F279" t="n">
-        <v>117771.2672</v>
+        <v>2174.7239</v>
       </c>
       <c r="G279" t="n">
-        <v>32.66166666666667</v>
+        <v>32.68</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7636,24 +8475,27 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>32.6</v>
+        <v>32.1</v>
       </c>
       <c r="C280" t="n">
-        <v>32.6</v>
+        <v>31.5</v>
       </c>
       <c r="D280" t="n">
-        <v>32.6</v>
+        <v>32.1</v>
       </c>
       <c r="E280" t="n">
-        <v>32.6</v>
+        <v>31.5</v>
       </c>
       <c r="F280" t="n">
-        <v>15</v>
+        <v>117771.2672</v>
       </c>
       <c r="G280" t="n">
         <v>32.66166666666667</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7662,24 +8504,27 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="C281" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="D281" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="E281" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="F281" t="n">
-        <v>21.9856</v>
+        <v>15</v>
       </c>
       <c r="G281" t="n">
-        <v>32.66500000000001</v>
+        <v>32.66166666666667</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,12 +8545,15 @@
         <v>32.8</v>
       </c>
       <c r="F282" t="n">
-        <v>11</v>
+        <v>21.9856</v>
       </c>
       <c r="G282" t="n">
-        <v>32.66833333333334</v>
+        <v>32.66500000000001</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7726,12 +8574,15 @@
         <v>32.8</v>
       </c>
       <c r="F283" t="n">
-        <v>30.9658</v>
+        <v>11</v>
       </c>
       <c r="G283" t="n">
-        <v>32.67166666666667</v>
+        <v>32.66833333333334</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7752,12 +8603,15 @@
         <v>32.8</v>
       </c>
       <c r="F284" t="n">
-        <v>12.5346</v>
+        <v>30.9658</v>
       </c>
       <c r="G284" t="n">
-        <v>32.67</v>
+        <v>32.67166666666667</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7769,21 +8623,24 @@
         <v>32.8</v>
       </c>
       <c r="C285" t="n">
-        <v>31.8</v>
+        <v>32.8</v>
       </c>
       <c r="D285" t="n">
         <v>32.8</v>
       </c>
       <c r="E285" t="n">
-        <v>31.8</v>
+        <v>32.8</v>
       </c>
       <c r="F285" t="n">
-        <v>27712.481</v>
+        <v>12.5346</v>
       </c>
       <c r="G285" t="n">
-        <v>32.65000000000001</v>
+        <v>32.67</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7792,24 +8649,27 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>31.9</v>
+        <v>32.8</v>
       </c>
       <c r="C286" t="n">
         <v>31.8</v>
       </c>
       <c r="D286" t="n">
-        <v>31.9</v>
+        <v>32.8</v>
       </c>
       <c r="E286" t="n">
         <v>31.8</v>
       </c>
       <c r="F286" t="n">
-        <v>83215.497</v>
+        <v>27712.481</v>
       </c>
       <c r="G286" t="n">
-        <v>32.62666666666667</v>
+        <v>32.65000000000001</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7818,24 +8678,27 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>32.8</v>
+        <v>31.9</v>
       </c>
       <c r="C287" t="n">
-        <v>32.8</v>
+        <v>31.8</v>
       </c>
       <c r="D287" t="n">
-        <v>32.8</v>
+        <v>31.9</v>
       </c>
       <c r="E287" t="n">
-        <v>32.8</v>
+        <v>31.8</v>
       </c>
       <c r="F287" t="n">
-        <v>10</v>
+        <v>83215.497</v>
       </c>
       <c r="G287" t="n">
-        <v>32.62833333333334</v>
+        <v>32.62666666666667</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7844,24 +8707,27 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C288" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D288" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E288" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="F288" t="n">
-        <v>20.202</v>
+        <v>10</v>
       </c>
       <c r="G288" t="n">
-        <v>32.63</v>
+        <v>32.62833333333334</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7870,24 +8736,27 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>31.8</v>
+        <v>32.7</v>
       </c>
       <c r="C289" t="n">
-        <v>31.8</v>
+        <v>32.7</v>
       </c>
       <c r="D289" t="n">
-        <v>31.8</v>
+        <v>32.7</v>
       </c>
       <c r="E289" t="n">
-        <v>31.8</v>
+        <v>32.7</v>
       </c>
       <c r="F289" t="n">
-        <v>10</v>
+        <v>20.202</v>
       </c>
       <c r="G289" t="n">
-        <v>32.61666666666667</v>
+        <v>32.63</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7896,24 +8765,27 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="C290" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="D290" t="n">
-        <v>32.3</v>
+        <v>31.8</v>
       </c>
       <c r="E290" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="F290" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G290" t="n">
         <v>32.61666666666667</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7922,24 +8794,27 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="C291" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="D291" t="n">
         <v>32.3</v>
       </c>
       <c r="E291" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="F291" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G291" t="n">
-        <v>32.63</v>
+        <v>32.61666666666667</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7948,7 +8823,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>32</v>
+        <v>32.3</v>
       </c>
       <c r="C292" t="n">
         <v>32.3</v>
@@ -7957,15 +8832,18 @@
         <v>32.3</v>
       </c>
       <c r="E292" t="n">
-        <v>31.9</v>
+        <v>32.3</v>
       </c>
       <c r="F292" t="n">
-        <v>5996</v>
+        <v>11</v>
       </c>
       <c r="G292" t="n">
-        <v>32.64333333333334</v>
+        <v>32.63</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7974,544 +8852,27 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
+        <v>32</v>
+      </c>
+      <c r="C293" t="n">
         <v>32.3</v>
       </c>
-      <c r="C293" t="n">
-        <v>32.4</v>
-      </c>
       <c r="D293" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="E293" t="n">
-        <v>32.3</v>
+        <v>31.9</v>
       </c>
       <c r="F293" t="n">
-        <v>18319.34</v>
+        <v>5996</v>
       </c>
       <c r="G293" t="n">
-        <v>32.63666666666667</v>
+        <v>32.64333333333334</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C294" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D294" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E294" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F294" t="n">
-        <v>11</v>
-      </c>
-      <c r="G294" t="n">
-        <v>32.65500000000001</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C295" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D295" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E295" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F295" t="n">
-        <v>18234.294</v>
-      </c>
-      <c r="G295" t="n">
-        <v>32.65000000000001</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C296" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D296" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E296" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F296" t="n">
-        <v>50604.2572</v>
-      </c>
-      <c r="G296" t="n">
-        <v>32.66166666666668</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C297" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D297" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E297" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F297" t="n">
-        <v>37909.3646</v>
-      </c>
-      <c r="G297" t="n">
-        <v>32.66000000000001</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C298" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D298" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E298" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F298" t="n">
-        <v>44239.369</v>
-      </c>
-      <c r="G298" t="n">
-        <v>32.66500000000001</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C299" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D299" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E299" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F299" t="n">
-        <v>14411.744</v>
-      </c>
-      <c r="G299" t="n">
-        <v>32.67333333333335</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C300" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D300" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E300" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F300" t="n">
-        <v>11609.1248</v>
-      </c>
-      <c r="G300" t="n">
-        <v>32.68333333333335</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C301" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D301" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E301" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F301" t="n">
-        <v>17</v>
-      </c>
-      <c r="G301" t="n">
-        <v>32.69833333333335</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C302" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D302" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E302" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F302" t="n">
-        <v>35261.453</v>
-      </c>
-      <c r="G302" t="n">
-        <v>32.70833333333335</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C303" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D303" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E303" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F303" t="n">
-        <v>306.29</v>
-      </c>
-      <c r="G303" t="n">
-        <v>32.70333333333335</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C304" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="D304" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E304" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1900.4382</v>
-      </c>
-      <c r="G304" t="n">
-        <v>32.70000000000002</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C305" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D305" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E305" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1866.6257</v>
-      </c>
-      <c r="G305" t="n">
-        <v>32.69500000000001</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C306" t="n">
-        <v>32</v>
-      </c>
-      <c r="D306" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E306" t="n">
-        <v>32</v>
-      </c>
-      <c r="F306" t="n">
-        <v>9603.4202</v>
-      </c>
-      <c r="G306" t="n">
-        <v>32.68000000000001</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C307" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E307" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F307" t="n">
-        <v>308.0455</v>
-      </c>
-      <c r="G307" t="n">
-        <v>32.66666666666668</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>32</v>
-      </c>
-      <c r="C308" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D308" t="n">
-        <v>32</v>
-      </c>
-      <c r="E308" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F308" t="n">
-        <v>323636.3484</v>
-      </c>
-      <c r="G308" t="n">
-        <v>32.65833333333335</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="C309" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D309" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="E309" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F309" t="n">
-        <v>33342.9614</v>
-      </c>
-      <c r="G309" t="n">
-        <v>32.64000000000001</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="C310" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D310" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="E310" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F310" t="n">
-        <v>375143.3505</v>
-      </c>
-      <c r="G310" t="n">
-        <v>32.62333333333334</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="C311" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="D311" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E311" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F311" t="n">
-        <v>12</v>
-      </c>
-      <c r="G311" t="n">
-        <v>32.60666666666668</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C312" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="D312" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E312" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F312" t="n">
-        <v>104288.5401</v>
-      </c>
-      <c r="G312" t="n">
-        <v>32.58333333333334</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C313" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D313" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E313" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F313" t="n">
-        <v>174.7367</v>
-      </c>
-      <c r="G313" t="n">
-        <v>32.55833333333334</v>
-      </c>
-      <c r="H313" t="n">
+      <c r="I293" t="n">
         <v>0</v>
       </c>
     </row>
